--- a/species_records_summary_veg_100kbuffer_AG.xlsx
+++ b/species_records_summary_veg_100kbuffer_AG.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ascelin/Google Drive/Consulting/2017_NSW_WSSP/SDM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/TOSHIBA EXT/WSSSP Modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C822D055-2BA4-1A4C-A24A-464B00410387}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9EFF31-F6B5-4747-8EA8-0E738C277527}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="440" windowWidth="28340" windowHeight="17120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="460" windowWidth="28340" windowHeight="17120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SDM candidats" sheetId="4" r:id="rId1"/>
-    <sheet name="definitely cant model" sheetId="1" r:id="rId2"/>
-    <sheet name="all spp records" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="definitely cant model" sheetId="1" r:id="rId3"/>
+    <sheet name="all spp records" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="201">
   <si>
     <t>Code name</t>
   </si>
@@ -972,7 +973,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1204,6 +1205,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1249,7 +1265,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1261,15 +1277,6 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1282,17 +1289,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1656,7 +1678,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1682,1828 +1704,1831 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="11" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="12" t="s">
+      <c r="G1" s="32"/>
+      <c r="H1" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="11" t="s">
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="12" t="s">
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="28"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="24"/>
     </row>
     <row r="2" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="15" t="s">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="P2" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="Q2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="27" t="s">
+      <c r="R2" s="23" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="36">
+        <v>455</v>
+      </c>
+      <c r="G3" s="38">
+        <v>401</v>
+      </c>
+      <c r="H3" s="37">
+        <v>20</v>
+      </c>
+      <c r="I3" s="37">
+        <v>20</v>
+      </c>
+      <c r="J3" s="37">
+        <v>9</v>
+      </c>
+      <c r="K3" s="37">
+        <v>9</v>
+      </c>
+      <c r="L3" s="36">
+        <v>99</v>
+      </c>
+      <c r="M3" s="37">
+        <v>96</v>
+      </c>
+      <c r="N3" s="37">
+        <v>49</v>
+      </c>
+      <c r="O3" s="38">
+        <v>48</v>
+      </c>
+      <c r="P3" s="37">
+        <v>336</v>
+      </c>
+      <c r="Q3" s="38">
+        <v>285</v>
+      </c>
+      <c r="R3" s="35" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="14">
+        <v>216</v>
+      </c>
+      <c r="G4" s="16">
+        <v>215</v>
+      </c>
+      <c r="H4" s="15">
+        <v>135</v>
+      </c>
+      <c r="I4" s="15">
+        <v>134</v>
+      </c>
+      <c r="J4" s="15">
+        <v>103</v>
+      </c>
+      <c r="K4" s="15">
+        <v>102</v>
+      </c>
+      <c r="L4" s="14">
+        <v>81</v>
+      </c>
+      <c r="M4" s="15">
+        <v>81</v>
+      </c>
+      <c r="N4" s="15">
+        <v>64</v>
+      </c>
+      <c r="O4" s="16">
+        <v>64</v>
+      </c>
+      <c r="P4" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="16">
+        <v>0</v>
+      </c>
+      <c r="R4" s="22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="17">
+        <v>63</v>
+      </c>
+      <c r="G5" s="19">
+        <v>57</v>
+      </c>
+      <c r="H5" s="18">
+        <v>36</v>
+      </c>
+      <c r="I5" s="18">
+        <v>35</v>
+      </c>
+      <c r="J5" s="18">
+        <v>28</v>
+      </c>
+      <c r="K5" s="18">
+        <v>28</v>
+      </c>
+      <c r="L5" s="17">
+        <v>26</v>
+      </c>
+      <c r="M5" s="18">
+        <v>21</v>
+      </c>
+      <c r="N5" s="18">
+        <v>17</v>
+      </c>
+      <c r="O5" s="19">
+        <v>17</v>
+      </c>
+      <c r="P5" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="19">
+        <v>1</v>
+      </c>
+      <c r="R5" s="25" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="14">
+        <v>476</v>
+      </c>
+      <c r="G6" s="16">
+        <v>454</v>
+      </c>
+      <c r="H6" s="15">
+        <v>60</v>
+      </c>
+      <c r="I6" s="15">
+        <v>60</v>
+      </c>
+      <c r="J6" s="15">
+        <v>46</v>
+      </c>
+      <c r="K6" s="15">
+        <v>46</v>
+      </c>
+      <c r="L6" s="14">
+        <v>416</v>
+      </c>
+      <c r="M6" s="15">
+        <v>394</v>
+      </c>
+      <c r="N6" s="15">
+        <v>244</v>
+      </c>
+      <c r="O6" s="16">
+        <v>240</v>
+      </c>
+      <c r="P6" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="16">
+        <v>0</v>
+      </c>
+      <c r="R6" s="22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="14">
+        <v>570</v>
+      </c>
+      <c r="G7" s="16">
+        <v>567</v>
+      </c>
+      <c r="H7" s="15">
+        <v>493</v>
+      </c>
+      <c r="I7" s="15">
+        <v>492</v>
+      </c>
+      <c r="J7" s="15">
+        <v>367</v>
+      </c>
+      <c r="K7" s="15">
+        <v>366</v>
+      </c>
+      <c r="L7" s="14">
+        <v>77</v>
+      </c>
+      <c r="M7" s="15">
+        <v>75</v>
+      </c>
+      <c r="N7" s="15">
+        <v>69</v>
+      </c>
+      <c r="O7" s="16">
+        <v>68</v>
+      </c>
+      <c r="P7" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="16">
+        <v>0</v>
+      </c>
+      <c r="R7" s="22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="14">
+        <v>260</v>
+      </c>
+      <c r="G8" s="16">
+        <v>239</v>
+      </c>
+      <c r="H8" s="15">
+        <v>54</v>
+      </c>
+      <c r="I8" s="15">
+        <v>46</v>
+      </c>
+      <c r="J8" s="15">
+        <v>38</v>
+      </c>
+      <c r="K8" s="15">
+        <v>38</v>
+      </c>
+      <c r="L8" s="14">
+        <v>206</v>
+      </c>
+      <c r="M8" s="15">
+        <v>193</v>
+      </c>
+      <c r="N8" s="15">
+        <v>174</v>
+      </c>
+      <c r="O8" s="16">
+        <v>167</v>
+      </c>
+      <c r="P8" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="16">
+        <v>0</v>
+      </c>
+      <c r="R8" s="22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B9" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C9" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="29">
+      <c r="D9" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="14">
         <v>5123</v>
       </c>
-      <c r="G3" s="31">
+      <c r="G9" s="16">
         <v>5113</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H9" s="15">
         <v>4932</v>
       </c>
-      <c r="I3" s="30">
+      <c r="I9" s="15">
         <v>4925</v>
       </c>
-      <c r="J3" s="30">
+      <c r="J9" s="15">
         <v>4258</v>
       </c>
-      <c r="K3" s="30">
+      <c r="K9" s="15">
         <v>4258</v>
       </c>
-      <c r="L3" s="29">
+      <c r="L9" s="14">
         <v>191</v>
       </c>
-      <c r="M3" s="30">
+      <c r="M9" s="15">
         <v>188</v>
       </c>
-      <c r="N3" s="30">
+      <c r="N9" s="15">
         <v>72</v>
       </c>
-      <c r="O3" s="31">
+      <c r="O9" s="16">
         <v>72</v>
       </c>
-      <c r="P3" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="31">
-        <v>0</v>
-      </c>
-      <c r="R3" s="26" t="s">
+      <c r="P9" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="16">
+        <v>0</v>
+      </c>
+      <c r="R9" s="22" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
+    <row r="10" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="17">
+        <v>75</v>
+      </c>
+      <c r="G10" s="19">
+        <v>75</v>
+      </c>
+      <c r="H10" s="18">
+        <v>15</v>
+      </c>
+      <c r="I10" s="18">
+        <v>15</v>
+      </c>
+      <c r="J10" s="18">
+        <v>15</v>
+      </c>
+      <c r="K10" s="18">
+        <v>15</v>
+      </c>
+      <c r="L10" s="17">
+        <v>60</v>
+      </c>
+      <c r="M10" s="18">
+        <v>60</v>
+      </c>
+      <c r="N10" s="18">
+        <v>37</v>
+      </c>
+      <c r="O10" s="19">
+        <v>37</v>
+      </c>
+      <c r="P10" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="19">
+        <v>0</v>
+      </c>
+      <c r="R10" s="25" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="14">
+        <v>840</v>
+      </c>
+      <c r="G11" s="16">
+        <v>836</v>
+      </c>
+      <c r="H11" s="15">
+        <v>7</v>
+      </c>
+      <c r="I11" s="15">
+        <v>7</v>
+      </c>
+      <c r="J11" s="15">
+        <v>4</v>
+      </c>
+      <c r="K11" s="15">
+        <v>4</v>
+      </c>
+      <c r="L11" s="14">
+        <v>735</v>
+      </c>
+      <c r="M11" s="15">
+        <v>733</v>
+      </c>
+      <c r="N11" s="15">
+        <v>709</v>
+      </c>
+      <c r="O11" s="16">
+        <v>707</v>
+      </c>
+      <c r="P11" s="15">
+        <v>98</v>
+      </c>
+      <c r="Q11" s="16">
+        <v>96</v>
+      </c>
+      <c r="R11" s="22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="14">
+        <v>13688</v>
+      </c>
+      <c r="G12" s="16">
+        <v>13628</v>
+      </c>
+      <c r="H12" s="15">
+        <v>21</v>
+      </c>
+      <c r="I12" s="15">
+        <v>21</v>
+      </c>
+      <c r="J12" s="15">
+        <v>18</v>
+      </c>
+      <c r="K12" s="15">
+        <v>18</v>
+      </c>
+      <c r="L12" s="14">
+        <v>3448</v>
+      </c>
+      <c r="M12" s="15">
+        <v>3429</v>
+      </c>
+      <c r="N12" s="15">
+        <v>2959</v>
+      </c>
+      <c r="O12" s="16">
+        <v>2950</v>
+      </c>
+      <c r="P12" s="15">
+        <v>10211</v>
+      </c>
+      <c r="Q12" s="16">
+        <v>10170</v>
+      </c>
+      <c r="R12" s="22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="14">
+        <v>18589</v>
+      </c>
+      <c r="G13" s="16">
+        <v>18575</v>
+      </c>
+      <c r="H13" s="15">
+        <v>11332</v>
+      </c>
+      <c r="I13" s="15">
+        <v>11332</v>
+      </c>
+      <c r="J13" s="15">
+        <v>53</v>
+      </c>
+      <c r="K13" s="15">
+        <v>53</v>
+      </c>
+      <c r="L13" s="14">
+        <v>2104</v>
+      </c>
+      <c r="M13" s="15">
+        <v>2099</v>
+      </c>
+      <c r="N13" s="15">
+        <v>650</v>
+      </c>
+      <c r="O13" s="16">
+        <v>647</v>
+      </c>
+      <c r="P13" s="15">
+        <v>5153</v>
+      </c>
+      <c r="Q13" s="16">
+        <v>5144</v>
+      </c>
+      <c r="R13" s="22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="14">
+        <v>7251</v>
+      </c>
+      <c r="G14" s="16">
+        <v>7158</v>
+      </c>
+      <c r="H14" s="15">
+        <v>691</v>
+      </c>
+      <c r="I14" s="15">
+        <v>683</v>
+      </c>
+      <c r="J14" s="15">
+        <v>468</v>
+      </c>
+      <c r="K14" s="15">
+        <v>463</v>
+      </c>
+      <c r="L14" s="14">
+        <v>3575</v>
+      </c>
+      <c r="M14" s="15">
+        <v>3519</v>
+      </c>
+      <c r="N14" s="15">
+        <v>2513</v>
+      </c>
+      <c r="O14" s="16">
+        <v>2509</v>
+      </c>
+      <c r="P14" s="15">
+        <v>2985</v>
+      </c>
+      <c r="Q14" s="16">
+        <v>2956</v>
+      </c>
+      <c r="R14" s="22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="14">
+        <v>484</v>
+      </c>
+      <c r="G15" s="16">
+        <v>484</v>
+      </c>
+      <c r="H15" s="15">
+        <v>14</v>
+      </c>
+      <c r="I15" s="15">
+        <v>14</v>
+      </c>
+      <c r="J15" s="15">
+        <v>13</v>
+      </c>
+      <c r="K15" s="15">
+        <v>13</v>
+      </c>
+      <c r="L15" s="14">
+        <v>470</v>
+      </c>
+      <c r="M15" s="15">
+        <v>470</v>
+      </c>
+      <c r="N15" s="15">
+        <v>426</v>
+      </c>
+      <c r="O15" s="16">
+        <v>426</v>
+      </c>
+      <c r="P15" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="16">
+        <v>0</v>
+      </c>
+      <c r="R15" s="22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="14">
+        <v>45740</v>
+      </c>
+      <c r="G16" s="16">
+        <v>37481</v>
+      </c>
+      <c r="H16" s="15">
+        <v>1090</v>
+      </c>
+      <c r="I16" s="15">
+        <v>1063</v>
+      </c>
+      <c r="J16" s="15">
+        <v>830</v>
+      </c>
+      <c r="K16" s="15">
+        <v>824</v>
+      </c>
+      <c r="L16" s="14">
+        <v>6942</v>
+      </c>
+      <c r="M16" s="15">
+        <v>6306</v>
+      </c>
+      <c r="N16" s="15">
+        <v>5911</v>
+      </c>
+      <c r="O16" s="16">
+        <v>5514</v>
+      </c>
+      <c r="P16" s="15">
+        <v>37701</v>
+      </c>
+      <c r="Q16" s="16">
+        <v>30105</v>
+      </c>
+      <c r="R16" s="22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="14">
+        <v>1365</v>
+      </c>
+      <c r="G17" s="16">
+        <v>1361</v>
+      </c>
+      <c r="H17" s="15">
+        <v>46</v>
+      </c>
+      <c r="I17" s="15">
+        <v>46</v>
+      </c>
+      <c r="J17" s="15">
+        <v>30</v>
+      </c>
+      <c r="K17" s="15">
+        <v>30</v>
+      </c>
+      <c r="L17" s="14">
+        <v>488</v>
+      </c>
+      <c r="M17" s="15">
+        <v>486</v>
+      </c>
+      <c r="N17" s="15">
+        <v>331</v>
+      </c>
+      <c r="O17" s="16">
+        <v>329</v>
+      </c>
+      <c r="P17" s="15">
+        <v>824</v>
+      </c>
+      <c r="Q17" s="16">
+        <v>822</v>
+      </c>
+      <c r="R17" s="22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="14">
+        <v>570</v>
+      </c>
+      <c r="G18" s="16">
+        <v>554</v>
+      </c>
+      <c r="H18" s="15">
+        <v>41</v>
+      </c>
+      <c r="I18" s="15">
+        <v>37</v>
+      </c>
+      <c r="J18" s="15">
+        <v>13</v>
+      </c>
+      <c r="K18" s="15">
+        <v>10</v>
+      </c>
+      <c r="L18" s="14">
+        <v>313</v>
+      </c>
+      <c r="M18" s="15">
+        <v>302</v>
+      </c>
+      <c r="N18" s="15">
+        <v>186</v>
+      </c>
+      <c r="O18" s="16">
+        <v>178</v>
+      </c>
+      <c r="P18" s="15">
+        <v>216</v>
+      </c>
+      <c r="Q18" s="16">
+        <v>215</v>
+      </c>
+      <c r="R18" s="22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="14">
+        <v>258</v>
+      </c>
+      <c r="G19" s="16">
+        <v>256</v>
+      </c>
+      <c r="H19" s="15">
+        <v>7</v>
+      </c>
+      <c r="I19" s="15">
+        <v>7</v>
+      </c>
+      <c r="J19" s="15">
+        <v>7</v>
+      </c>
+      <c r="K19" s="15">
+        <v>7</v>
+      </c>
+      <c r="L19" s="14">
+        <v>251</v>
+      </c>
+      <c r="M19" s="15">
+        <v>249</v>
+      </c>
+      <c r="N19" s="15">
+        <v>215</v>
+      </c>
+      <c r="O19" s="16">
+        <v>213</v>
+      </c>
+      <c r="P19" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="16">
+        <v>0</v>
+      </c>
+      <c r="R19" s="22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="14">
+        <v>747</v>
+      </c>
+      <c r="G20" s="16">
+        <v>741</v>
+      </c>
+      <c r="H20" s="15">
+        <v>739</v>
+      </c>
+      <c r="I20" s="15">
+        <v>733</v>
+      </c>
+      <c r="J20" s="15">
+        <v>545</v>
+      </c>
+      <c r="K20" s="15">
+        <v>544</v>
+      </c>
+      <c r="L20" s="14">
+        <v>8</v>
+      </c>
+      <c r="M20" s="15">
+        <v>8</v>
+      </c>
+      <c r="N20" s="15">
+        <v>0</v>
+      </c>
+      <c r="O20" s="16">
+        <v>0</v>
+      </c>
+      <c r="P20" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="16">
+        <v>0</v>
+      </c>
+      <c r="R20" s="22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="14">
+        <v>145</v>
+      </c>
+      <c r="G21" s="16">
+        <v>143</v>
+      </c>
+      <c r="H21" s="15">
+        <v>137</v>
+      </c>
+      <c r="I21" s="15">
+        <v>135</v>
+      </c>
+      <c r="J21" s="15">
+        <v>80</v>
+      </c>
+      <c r="K21" s="15">
+        <v>79</v>
+      </c>
+      <c r="L21" s="14">
+        <v>8</v>
+      </c>
+      <c r="M21" s="15">
+        <v>8</v>
+      </c>
+      <c r="N21" s="15">
+        <v>6</v>
+      </c>
+      <c r="O21" s="16">
+        <v>6</v>
+      </c>
+      <c r="P21" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="16">
+        <v>0</v>
+      </c>
+      <c r="R21" s="22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="14">
+        <v>339</v>
+      </c>
+      <c r="G22" s="16">
+        <v>337</v>
+      </c>
+      <c r="H22" s="15">
+        <v>10</v>
+      </c>
+      <c r="I22" s="15">
+        <v>10</v>
+      </c>
+      <c r="J22" s="15">
+        <v>9</v>
+      </c>
+      <c r="K22" s="15">
+        <v>9</v>
+      </c>
+      <c r="L22" s="14">
+        <v>329</v>
+      </c>
+      <c r="M22" s="15">
+        <v>327</v>
+      </c>
+      <c r="N22" s="15">
+        <v>296</v>
+      </c>
+      <c r="O22" s="16">
+        <v>294</v>
+      </c>
+      <c r="P22" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="16">
+        <v>0</v>
+      </c>
+      <c r="R22" s="22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="14">
+        <v>220</v>
+      </c>
+      <c r="G23" s="16">
+        <v>218</v>
+      </c>
+      <c r="H23" s="15">
+        <v>16</v>
+      </c>
+      <c r="I23" s="15">
+        <v>16</v>
+      </c>
+      <c r="J23" s="15">
+        <v>7</v>
+      </c>
+      <c r="K23" s="15">
+        <v>7</v>
+      </c>
+      <c r="L23" s="14">
+        <v>204</v>
+      </c>
+      <c r="M23" s="15">
+        <v>202</v>
+      </c>
+      <c r="N23" s="15">
+        <v>177</v>
+      </c>
+      <c r="O23" s="16">
+        <v>175</v>
+      </c>
+      <c r="P23" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="16">
+        <v>0</v>
+      </c>
+      <c r="R23" s="22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="14">
+        <v>1065</v>
+      </c>
+      <c r="G24" s="16">
+        <v>1056</v>
+      </c>
+      <c r="H24" s="15">
+        <v>15</v>
+      </c>
+      <c r="I24" s="15">
+        <v>14</v>
+      </c>
+      <c r="J24" s="15">
+        <v>5</v>
+      </c>
+      <c r="K24" s="15">
+        <v>5</v>
+      </c>
+      <c r="L24" s="14">
+        <v>1050</v>
+      </c>
+      <c r="M24" s="15">
+        <v>1042</v>
+      </c>
+      <c r="N24" s="15">
+        <v>719</v>
+      </c>
+      <c r="O24" s="16">
+        <v>713</v>
+      </c>
+      <c r="P24" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="16">
+        <v>0</v>
+      </c>
+      <c r="R24" s="22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="14">
+        <v>103</v>
+      </c>
+      <c r="G25" s="16">
+        <v>99</v>
+      </c>
+      <c r="H25" s="15">
+        <v>3</v>
+      </c>
+      <c r="I25" s="15">
+        <v>3</v>
+      </c>
+      <c r="J25" s="15">
+        <v>3</v>
+      </c>
+      <c r="K25" s="15">
+        <v>3</v>
+      </c>
+      <c r="L25" s="14">
+        <v>100</v>
+      </c>
+      <c r="M25" s="15">
+        <v>96</v>
+      </c>
+      <c r="N25" s="15">
+        <v>92</v>
+      </c>
+      <c r="O25" s="16">
+        <v>88</v>
+      </c>
+      <c r="P25" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="16">
+        <v>0</v>
+      </c>
+      <c r="R25" s="22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="17">
+        <v>52</v>
+      </c>
+      <c r="G26" s="19">
+        <v>52</v>
+      </c>
+      <c r="H26" s="18">
+        <v>4</v>
+      </c>
+      <c r="I26" s="18">
+        <v>4</v>
+      </c>
+      <c r="J26" s="18">
+        <v>2</v>
+      </c>
+      <c r="K26" s="18">
+        <v>2</v>
+      </c>
+      <c r="L26" s="17">
+        <v>48</v>
+      </c>
+      <c r="M26" s="18">
+        <v>48</v>
+      </c>
+      <c r="N26" s="18">
+        <v>38</v>
+      </c>
+      <c r="O26" s="19">
+        <v>38</v>
+      </c>
+      <c r="P26" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="19">
+        <v>0</v>
+      </c>
+      <c r="R26" s="25" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B27" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C27" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="17">
+      <c r="D27" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="14">
         <v>1147</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G27" s="16">
         <v>1139</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H27" s="15">
         <v>1109</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I27" s="15">
         <v>1101</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J27" s="15">
         <v>1038</v>
       </c>
-      <c r="K4" s="18">
+      <c r="K27" s="15">
         <v>1038</v>
       </c>
-      <c r="L4" s="17">
-        <v>38</v>
-      </c>
-      <c r="M4" s="18">
-        <v>38</v>
-      </c>
-      <c r="N4" s="18">
+      <c r="L27" s="14">
+        <v>38</v>
+      </c>
+      <c r="M27" s="15">
+        <v>38</v>
+      </c>
+      <c r="N27" s="15">
         <v>35</v>
       </c>
-      <c r="O4" s="19">
+      <c r="O27" s="16">
         <v>35</v>
       </c>
-      <c r="P4" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="19">
-        <v>0</v>
-      </c>
-      <c r="R4" s="25" t="s">
+      <c r="P27" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="16">
+        <v>0</v>
+      </c>
+      <c r="R27" s="22" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
+    <row r="28" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="14">
+        <v>3009</v>
+      </c>
+      <c r="G28" s="16">
+        <v>3004</v>
+      </c>
+      <c r="H28" s="15">
+        <v>137</v>
+      </c>
+      <c r="I28" s="15">
+        <v>137</v>
+      </c>
+      <c r="J28" s="15">
+        <v>133</v>
+      </c>
+      <c r="K28" s="15">
+        <v>133</v>
+      </c>
+      <c r="L28" s="14">
+        <v>1498</v>
+      </c>
+      <c r="M28" s="15">
+        <v>1493</v>
+      </c>
+      <c r="N28" s="15">
+        <v>991</v>
+      </c>
+      <c r="O28" s="16">
+        <v>991</v>
+      </c>
+      <c r="P28" s="15">
+        <v>1374</v>
+      </c>
+      <c r="Q28" s="16">
+        <v>1374</v>
+      </c>
+      <c r="R28" s="22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B29" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C29" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="17">
+      <c r="D29" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="14">
         <v>1045</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G29" s="16">
         <v>1041</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H29" s="15">
         <v>1022</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I29" s="15">
         <v>1018</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J29" s="15">
         <v>941</v>
       </c>
-      <c r="K5" s="18">
+      <c r="K29" s="15">
         <v>941</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L29" s="14">
         <v>23</v>
       </c>
-      <c r="M5" s="18">
+      <c r="M29" s="15">
         <v>23</v>
       </c>
-      <c r="N5" s="18">
+      <c r="N29" s="15">
         <v>5</v>
       </c>
-      <c r="O5" s="19">
+      <c r="O29" s="16">
         <v>5</v>
       </c>
-      <c r="P5" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="19">
-        <v>0</v>
-      </c>
-      <c r="R5" s="25" t="s">
+      <c r="P29" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="16">
+        <v>0</v>
+      </c>
+      <c r="R29" s="22" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="18" t="s">
+    <row r="30" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="14">
+        <v>8366</v>
+      </c>
+      <c r="G30" s="16">
+        <v>6230</v>
+      </c>
+      <c r="H30" s="15">
+        <v>35</v>
+      </c>
+      <c r="I30" s="15">
+        <v>27</v>
+      </c>
+      <c r="J30" s="15">
+        <v>12</v>
+      </c>
+      <c r="K30" s="15">
+        <v>11</v>
+      </c>
+      <c r="L30" s="14">
+        <v>1334</v>
+      </c>
+      <c r="M30" s="15">
+        <v>919</v>
+      </c>
+      <c r="N30" s="15">
+        <v>844</v>
+      </c>
+      <c r="O30" s="16">
+        <v>667</v>
+      </c>
+      <c r="P30" s="15">
+        <v>6990</v>
+      </c>
+      <c r="Q30" s="16">
+        <v>5278</v>
+      </c>
+      <c r="R30" s="22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="14">
+        <v>5156</v>
+      </c>
+      <c r="G31" s="16">
+        <v>4745</v>
+      </c>
+      <c r="H31" s="15">
+        <v>601</v>
+      </c>
+      <c r="I31" s="15">
+        <v>584</v>
+      </c>
+      <c r="J31" s="15">
+        <v>219</v>
+      </c>
+      <c r="K31" s="15">
+        <v>210</v>
+      </c>
+      <c r="L31" s="14">
+        <v>1768</v>
+      </c>
+      <c r="M31" s="15">
+        <v>1728</v>
+      </c>
+      <c r="N31" s="15">
+        <v>876</v>
+      </c>
+      <c r="O31" s="16">
+        <v>861</v>
+      </c>
+      <c r="P31" s="15">
+        <v>2787</v>
+      </c>
+      <c r="Q31" s="16">
+        <v>2433</v>
+      </c>
+      <c r="R31" s="22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="14">
+        <v>333</v>
+      </c>
+      <c r="G32" s="16">
+        <v>316</v>
+      </c>
+      <c r="H32" s="15">
         <v>10</v>
       </c>
-      <c r="E6" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="17">
-        <v>45740</v>
-      </c>
-      <c r="G6" s="19">
-        <v>37481</v>
-      </c>
-      <c r="H6" s="18">
-        <v>1090</v>
-      </c>
-      <c r="I6" s="18">
-        <v>1063</v>
-      </c>
-      <c r="J6" s="18">
-        <v>830</v>
-      </c>
-      <c r="K6" s="18">
-        <v>824</v>
-      </c>
-      <c r="L6" s="17">
-        <v>6942</v>
-      </c>
-      <c r="M6" s="18">
-        <v>6306</v>
-      </c>
-      <c r="N6" s="18">
-        <v>5911</v>
-      </c>
-      <c r="O6" s="19">
-        <v>5514</v>
-      </c>
-      <c r="P6" s="18">
-        <v>37701</v>
-      </c>
-      <c r="Q6" s="19">
-        <v>30105</v>
-      </c>
-      <c r="R6" s="25" t="s">
+      <c r="I32" s="15">
+        <v>10</v>
+      </c>
+      <c r="J32" s="15">
+        <v>8</v>
+      </c>
+      <c r="K32" s="15">
+        <v>8</v>
+      </c>
+      <c r="L32" s="14">
+        <v>113</v>
+      </c>
+      <c r="M32" s="15">
+        <v>113</v>
+      </c>
+      <c r="N32" s="15">
+        <v>78</v>
+      </c>
+      <c r="O32" s="16">
+        <v>78</v>
+      </c>
+      <c r="P32" s="15">
+        <v>210</v>
+      </c>
+      <c r="Q32" s="16">
+        <v>193</v>
+      </c>
+      <c r="R32" s="22" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="17">
-        <v>747</v>
-      </c>
-      <c r="G7" s="19">
-        <v>741</v>
-      </c>
-      <c r="H7" s="18">
-        <v>739</v>
-      </c>
-      <c r="I7" s="18">
-        <v>733</v>
-      </c>
-      <c r="J7" s="18">
-        <v>545</v>
-      </c>
-      <c r="K7" s="18">
-        <v>544</v>
-      </c>
-      <c r="L7" s="17">
-        <v>8</v>
-      </c>
-      <c r="M7" s="18">
-        <v>8</v>
-      </c>
-      <c r="N7" s="18">
-        <v>0</v>
-      </c>
-      <c r="O7" s="19">
-        <v>0</v>
-      </c>
-      <c r="P7" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="19">
-        <v>0</v>
-      </c>
-      <c r="R7" s="25" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="17">
-        <v>7251</v>
-      </c>
-      <c r="G8" s="19">
-        <v>7158</v>
-      </c>
-      <c r="H8" s="18">
-        <v>691</v>
-      </c>
-      <c r="I8" s="18">
-        <v>683</v>
-      </c>
-      <c r="J8" s="18">
-        <v>468</v>
-      </c>
-      <c r="K8" s="18">
-        <v>463</v>
-      </c>
-      <c r="L8" s="17">
-        <v>3575</v>
-      </c>
-      <c r="M8" s="18">
-        <v>3519</v>
-      </c>
-      <c r="N8" s="18">
-        <v>2513</v>
-      </c>
-      <c r="O8" s="19">
-        <v>2509</v>
-      </c>
-      <c r="P8" s="18">
-        <v>2985</v>
-      </c>
-      <c r="Q8" s="19">
-        <v>2956</v>
-      </c>
-      <c r="R8" s="25" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="17">
-        <v>570</v>
-      </c>
-      <c r="G9" s="19">
-        <v>567</v>
-      </c>
-      <c r="H9" s="18">
-        <v>493</v>
-      </c>
-      <c r="I9" s="18">
-        <v>492</v>
-      </c>
-      <c r="J9" s="18">
-        <v>367</v>
-      </c>
-      <c r="K9" s="18">
-        <v>366</v>
-      </c>
-      <c r="L9" s="17">
-        <v>77</v>
-      </c>
-      <c r="M9" s="18">
-        <v>75</v>
-      </c>
-      <c r="N9" s="18">
-        <v>69</v>
-      </c>
-      <c r="O9" s="19">
-        <v>68</v>
-      </c>
-      <c r="P9" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="19">
-        <v>0</v>
-      </c>
-      <c r="R9" s="25" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="17">
-        <v>5156</v>
-      </c>
-      <c r="G10" s="19">
-        <v>4745</v>
-      </c>
-      <c r="H10" s="18">
-        <v>601</v>
-      </c>
-      <c r="I10" s="18">
-        <v>584</v>
-      </c>
-      <c r="J10" s="18">
-        <v>219</v>
-      </c>
-      <c r="K10" s="18">
-        <v>210</v>
-      </c>
-      <c r="L10" s="17">
-        <v>1768</v>
-      </c>
-      <c r="M10" s="18">
-        <v>1728</v>
-      </c>
-      <c r="N10" s="18">
-        <v>876</v>
-      </c>
-      <c r="O10" s="19">
-        <v>861</v>
-      </c>
-      <c r="P10" s="18">
-        <v>2787</v>
-      </c>
-      <c r="Q10" s="19">
-        <v>2433</v>
-      </c>
-      <c r="R10" s="25" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="17">
-        <v>3009</v>
-      </c>
-      <c r="G11" s="19">
-        <v>3004</v>
-      </c>
-      <c r="H11" s="18">
-        <v>137</v>
-      </c>
-      <c r="I11" s="18">
-        <v>137</v>
-      </c>
-      <c r="J11" s="18">
-        <v>133</v>
-      </c>
-      <c r="K11" s="18">
-        <v>133</v>
-      </c>
-      <c r="L11" s="17">
-        <v>1498</v>
-      </c>
-      <c r="M11" s="18">
-        <v>1493</v>
-      </c>
-      <c r="N11" s="18">
-        <v>991</v>
-      </c>
-      <c r="O11" s="19">
-        <v>991</v>
-      </c>
-      <c r="P11" s="18">
-        <v>1374</v>
-      </c>
-      <c r="Q11" s="19">
-        <v>1374</v>
-      </c>
-      <c r="R11" s="25" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="17">
-        <v>216</v>
-      </c>
-      <c r="G12" s="19">
-        <v>215</v>
-      </c>
-      <c r="H12" s="18">
-        <v>135</v>
-      </c>
-      <c r="I12" s="18">
-        <v>134</v>
-      </c>
-      <c r="J12" s="18">
-        <v>103</v>
-      </c>
-      <c r="K12" s="18">
-        <v>102</v>
-      </c>
-      <c r="L12" s="17">
-        <v>81</v>
-      </c>
-      <c r="M12" s="18">
-        <v>81</v>
-      </c>
-      <c r="N12" s="18">
-        <v>64</v>
-      </c>
-      <c r="O12" s="19">
-        <v>64</v>
-      </c>
-      <c r="P12" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="19">
-        <v>0</v>
-      </c>
-      <c r="R12" s="25" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="17">
-        <v>145</v>
-      </c>
-      <c r="G13" s="19">
-        <v>143</v>
-      </c>
-      <c r="H13" s="18">
-        <v>137</v>
-      </c>
-      <c r="I13" s="18">
-        <v>135</v>
-      </c>
-      <c r="J13" s="18">
-        <v>80</v>
-      </c>
-      <c r="K13" s="18">
-        <v>79</v>
-      </c>
-      <c r="L13" s="17">
-        <v>8</v>
-      </c>
-      <c r="M13" s="18">
-        <v>8</v>
-      </c>
-      <c r="N13" s="18">
+    <row r="33" spans="1:18" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="27">
+        <v>50</v>
+      </c>
+      <c r="G33" s="29">
+        <v>50</v>
+      </c>
+      <c r="H33" s="28">
         <v>6</v>
       </c>
-      <c r="O13" s="19">
+      <c r="I33" s="28">
         <v>6</v>
       </c>
-      <c r="P13" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="19">
-        <v>0</v>
-      </c>
-      <c r="R13" s="25" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="17">
-        <v>18589</v>
-      </c>
-      <c r="G14" s="19">
-        <v>18575</v>
-      </c>
-      <c r="H14" s="18">
-        <v>11332</v>
-      </c>
-      <c r="I14" s="18">
-        <v>11332</v>
-      </c>
-      <c r="J14" s="18">
-        <v>53</v>
-      </c>
-      <c r="K14" s="18">
-        <v>53</v>
-      </c>
-      <c r="L14" s="17">
-        <v>2104</v>
-      </c>
-      <c r="M14" s="18">
-        <v>2099</v>
-      </c>
-      <c r="N14" s="18">
-        <v>650</v>
-      </c>
-      <c r="O14" s="19">
-        <v>647</v>
-      </c>
-      <c r="P14" s="18">
-        <v>5153</v>
-      </c>
-      <c r="Q14" s="19">
-        <v>5144</v>
-      </c>
-      <c r="R14" s="25" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="17">
-        <v>476</v>
-      </c>
-      <c r="G15" s="19">
-        <v>454</v>
-      </c>
-      <c r="H15" s="18">
-        <v>60</v>
-      </c>
-      <c r="I15" s="18">
-        <v>60</v>
-      </c>
-      <c r="J15" s="18">
-        <v>46</v>
-      </c>
-      <c r="K15" s="18">
-        <v>46</v>
-      </c>
-      <c r="L15" s="17">
-        <v>416</v>
-      </c>
-      <c r="M15" s="18">
-        <v>394</v>
-      </c>
-      <c r="N15" s="18">
-        <v>244</v>
-      </c>
-      <c r="O15" s="19">
-        <v>240</v>
-      </c>
-      <c r="P15" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="19">
-        <v>0</v>
-      </c>
-      <c r="R15" s="25" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="17">
-        <v>260</v>
-      </c>
-      <c r="G16" s="19">
-        <v>239</v>
-      </c>
-      <c r="H16" s="18">
-        <v>54</v>
-      </c>
-      <c r="I16" s="18">
-        <v>46</v>
-      </c>
-      <c r="J16" s="18">
-        <v>38</v>
-      </c>
-      <c r="K16" s="18">
-        <v>38</v>
-      </c>
-      <c r="L16" s="17">
-        <v>206</v>
-      </c>
-      <c r="M16" s="18">
-        <v>193</v>
-      </c>
-      <c r="N16" s="18">
-        <v>174</v>
-      </c>
-      <c r="O16" s="19">
-        <v>167</v>
-      </c>
-      <c r="P16" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="19">
-        <v>0</v>
-      </c>
-      <c r="R16" s="25" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="17">
-        <v>1365</v>
-      </c>
-      <c r="G17" s="19">
-        <v>1361</v>
-      </c>
-      <c r="H17" s="18">
-        <v>46</v>
-      </c>
-      <c r="I17" s="18">
-        <v>46</v>
-      </c>
-      <c r="J17" s="18">
-        <v>30</v>
-      </c>
-      <c r="K17" s="18">
-        <v>30</v>
-      </c>
-      <c r="L17" s="17">
-        <v>488</v>
-      </c>
-      <c r="M17" s="18">
-        <v>486</v>
-      </c>
-      <c r="N17" s="18">
-        <v>331</v>
-      </c>
-      <c r="O17" s="19">
-        <v>329</v>
-      </c>
-      <c r="P17" s="18">
-        <v>824</v>
-      </c>
-      <c r="Q17" s="19">
-        <v>822</v>
-      </c>
-      <c r="R17" s="25" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="20">
-        <v>63</v>
-      </c>
-      <c r="G18" s="22">
-        <v>57</v>
-      </c>
-      <c r="H18" s="21">
-        <v>36</v>
-      </c>
-      <c r="I18" s="21">
-        <v>35</v>
-      </c>
-      <c r="J18" s="21">
-        <v>28</v>
-      </c>
-      <c r="K18" s="21">
-        <v>28</v>
-      </c>
-      <c r="L18" s="20">
-        <v>26</v>
-      </c>
-      <c r="M18" s="21">
-        <v>21</v>
-      </c>
-      <c r="N18" s="21">
-        <v>17</v>
-      </c>
-      <c r="O18" s="22">
-        <v>17</v>
-      </c>
-      <c r="P18" s="21">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="22">
-        <v>1</v>
-      </c>
-      <c r="R18" s="32" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="17">
-        <v>13688</v>
-      </c>
-      <c r="G19" s="19">
-        <v>13628</v>
-      </c>
-      <c r="H19" s="18">
-        <v>21</v>
-      </c>
-      <c r="I19" s="18">
-        <v>21</v>
-      </c>
-      <c r="J19" s="18">
-        <v>18</v>
-      </c>
-      <c r="K19" s="18">
-        <v>18</v>
-      </c>
-      <c r="L19" s="17">
-        <v>3448</v>
-      </c>
-      <c r="M19" s="18">
-        <v>3429</v>
-      </c>
-      <c r="N19" s="18">
-        <v>2959</v>
-      </c>
-      <c r="O19" s="19">
-        <v>2950</v>
-      </c>
-      <c r="P19" s="18">
-        <v>10211</v>
-      </c>
-      <c r="Q19" s="19">
-        <v>10170</v>
-      </c>
-      <c r="R19" s="25" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="20">
-        <v>75</v>
-      </c>
-      <c r="G20" s="22">
-        <v>75</v>
-      </c>
-      <c r="H20" s="21">
-        <v>15</v>
-      </c>
-      <c r="I20" s="21">
-        <v>15</v>
-      </c>
-      <c r="J20" s="21">
-        <v>15</v>
-      </c>
-      <c r="K20" s="21">
-        <v>15</v>
-      </c>
-      <c r="L20" s="20">
-        <v>60</v>
-      </c>
-      <c r="M20" s="21">
-        <v>60</v>
-      </c>
-      <c r="N20" s="21">
-        <v>37</v>
-      </c>
-      <c r="O20" s="22">
-        <v>37</v>
-      </c>
-      <c r="P20" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="22">
-        <v>0</v>
-      </c>
-      <c r="R20" s="32" t="s">
+      <c r="J33" s="28">
+        <v>5</v>
+      </c>
+      <c r="K33" s="28">
+        <v>5</v>
+      </c>
+      <c r="L33" s="27">
+        <v>44</v>
+      </c>
+      <c r="M33" s="28">
+        <v>44</v>
+      </c>
+      <c r="N33" s="28">
+        <v>43</v>
+      </c>
+      <c r="O33" s="29">
+        <v>43</v>
+      </c>
+      <c r="P33" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="29">
+        <v>0</v>
+      </c>
+      <c r="R33" s="26" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="17">
-        <v>484</v>
-      </c>
-      <c r="G21" s="19">
-        <v>484</v>
-      </c>
-      <c r="H21" s="18">
-        <v>14</v>
-      </c>
-      <c r="I21" s="18">
-        <v>14</v>
-      </c>
-      <c r="J21" s="18">
-        <v>13</v>
-      </c>
-      <c r="K21" s="18">
-        <v>13</v>
-      </c>
-      <c r="L21" s="17">
-        <v>470</v>
-      </c>
-      <c r="M21" s="18">
-        <v>470</v>
-      </c>
-      <c r="N21" s="18">
-        <v>426</v>
-      </c>
-      <c r="O21" s="19">
-        <v>426</v>
-      </c>
-      <c r="P21" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="19">
-        <v>0</v>
-      </c>
-      <c r="R21" s="25" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="17">
-        <v>8366</v>
-      </c>
-      <c r="G22" s="19">
-        <v>6230</v>
-      </c>
-      <c r="H22" s="18">
-        <v>35</v>
-      </c>
-      <c r="I22" s="18">
-        <v>27</v>
-      </c>
-      <c r="J22" s="18">
-        <v>12</v>
-      </c>
-      <c r="K22" s="18">
-        <v>11</v>
-      </c>
-      <c r="L22" s="17">
-        <v>1334</v>
-      </c>
-      <c r="M22" s="18">
-        <v>919</v>
-      </c>
-      <c r="N22" s="18">
-        <v>844</v>
-      </c>
-      <c r="O22" s="19">
-        <v>667</v>
-      </c>
-      <c r="P22" s="18">
-        <v>6990</v>
-      </c>
-      <c r="Q22" s="19">
-        <v>5278</v>
-      </c>
-      <c r="R22" s="25" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="17">
-        <v>570</v>
-      </c>
-      <c r="G23" s="19">
-        <v>554</v>
-      </c>
-      <c r="H23" s="18">
-        <v>41</v>
-      </c>
-      <c r="I23" s="18">
-        <v>37</v>
-      </c>
-      <c r="J23" s="18">
-        <v>13</v>
-      </c>
-      <c r="K23" s="18">
-        <v>10</v>
-      </c>
-      <c r="L23" s="17">
-        <v>313</v>
-      </c>
-      <c r="M23" s="18">
-        <v>302</v>
-      </c>
-      <c r="N23" s="18">
-        <v>186</v>
-      </c>
-      <c r="O23" s="19">
-        <v>178</v>
-      </c>
-      <c r="P23" s="18">
-        <v>216</v>
-      </c>
-      <c r="Q23" s="19">
-        <v>215</v>
-      </c>
-      <c r="R23" s="25" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="20">
-        <v>455</v>
-      </c>
-      <c r="G24" s="22">
-        <v>401</v>
-      </c>
-      <c r="H24" s="21">
-        <v>20</v>
-      </c>
-      <c r="I24" s="21">
-        <v>20</v>
-      </c>
-      <c r="J24" s="21">
-        <v>9</v>
-      </c>
-      <c r="K24" s="21">
-        <v>9</v>
-      </c>
-      <c r="L24" s="20">
-        <v>99</v>
-      </c>
-      <c r="M24" s="21">
-        <v>96</v>
-      </c>
-      <c r="N24" s="21">
-        <v>49</v>
-      </c>
-      <c r="O24" s="22">
-        <v>48</v>
-      </c>
-      <c r="P24" s="21">
-        <v>336</v>
-      </c>
-      <c r="Q24" s="22">
-        <v>285</v>
-      </c>
-      <c r="R24" s="32" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="17">
-        <v>339</v>
-      </c>
-      <c r="G25" s="19">
-        <v>337</v>
-      </c>
-      <c r="H25" s="18">
-        <v>10</v>
-      </c>
-      <c r="I25" s="18">
-        <v>10</v>
-      </c>
-      <c r="J25" s="18">
-        <v>9</v>
-      </c>
-      <c r="K25" s="18">
-        <v>9</v>
-      </c>
-      <c r="L25" s="17">
-        <v>329</v>
-      </c>
-      <c r="M25" s="18">
-        <v>327</v>
-      </c>
-      <c r="N25" s="18">
-        <v>296</v>
-      </c>
-      <c r="O25" s="19">
-        <v>294</v>
-      </c>
-      <c r="P25" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="19">
-        <v>0</v>
-      </c>
-      <c r="R25" s="25" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="17">
-        <v>333</v>
-      </c>
-      <c r="G26" s="19">
-        <v>316</v>
-      </c>
-      <c r="H26" s="18">
-        <v>10</v>
-      </c>
-      <c r="I26" s="18">
-        <v>10</v>
-      </c>
-      <c r="J26" s="18">
-        <v>8</v>
-      </c>
-      <c r="K26" s="18">
-        <v>8</v>
-      </c>
-      <c r="L26" s="17">
-        <v>113</v>
-      </c>
-      <c r="M26" s="18">
-        <v>113</v>
-      </c>
-      <c r="N26" s="18">
-        <v>78</v>
-      </c>
-      <c r="O26" s="19">
-        <v>78</v>
-      </c>
-      <c r="P26" s="18">
-        <v>210</v>
-      </c>
-      <c r="Q26" s="19">
-        <v>193</v>
-      </c>
-      <c r="R26" s="25" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="17">
-        <v>258</v>
-      </c>
-      <c r="G27" s="19">
-        <v>256</v>
-      </c>
-      <c r="H27" s="18">
-        <v>7</v>
-      </c>
-      <c r="I27" s="18">
-        <v>7</v>
-      </c>
-      <c r="J27" s="18">
-        <v>7</v>
-      </c>
-      <c r="K27" s="18">
-        <v>7</v>
-      </c>
-      <c r="L27" s="17">
-        <v>251</v>
-      </c>
-      <c r="M27" s="18">
-        <v>249</v>
-      </c>
-      <c r="N27" s="18">
-        <v>215</v>
-      </c>
-      <c r="O27" s="19">
-        <v>213</v>
-      </c>
-      <c r="P27" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="19">
-        <v>0</v>
-      </c>
-      <c r="R27" s="25" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" s="17">
-        <v>220</v>
-      </c>
-      <c r="G28" s="19">
-        <v>218</v>
-      </c>
-      <c r="H28" s="18">
-        <v>16</v>
-      </c>
-      <c r="I28" s="18">
-        <v>16</v>
-      </c>
-      <c r="J28" s="18">
-        <v>7</v>
-      </c>
-      <c r="K28" s="18">
-        <v>7</v>
-      </c>
-      <c r="L28" s="17">
-        <v>204</v>
-      </c>
-      <c r="M28" s="18">
-        <v>202</v>
-      </c>
-      <c r="N28" s="18">
-        <v>177</v>
-      </c>
-      <c r="O28" s="19">
-        <v>175</v>
-      </c>
-      <c r="P28" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="19">
-        <v>0</v>
-      </c>
-      <c r="R28" s="25" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F29" s="17">
-        <v>1065</v>
-      </c>
-      <c r="G29" s="19">
-        <v>1056</v>
-      </c>
-      <c r="H29" s="18">
-        <v>15</v>
-      </c>
-      <c r="I29" s="18">
-        <v>14</v>
-      </c>
-      <c r="J29" s="18">
-        <v>5</v>
-      </c>
-      <c r="K29" s="18">
-        <v>5</v>
-      </c>
-      <c r="L29" s="17">
-        <v>1050</v>
-      </c>
-      <c r="M29" s="18">
-        <v>1042</v>
-      </c>
-      <c r="N29" s="18">
-        <v>719</v>
-      </c>
-      <c r="O29" s="19">
-        <v>713</v>
-      </c>
-      <c r="P29" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="19">
-        <v>0</v>
-      </c>
-      <c r="R29" s="25" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F30" s="20">
-        <v>50</v>
-      </c>
-      <c r="G30" s="22">
-        <v>50</v>
-      </c>
-      <c r="H30" s="21">
-        <v>6</v>
-      </c>
-      <c r="I30" s="21">
-        <v>6</v>
-      </c>
-      <c r="J30" s="21">
-        <v>5</v>
-      </c>
-      <c r="K30" s="21">
-        <v>5</v>
-      </c>
-      <c r="L30" s="20">
-        <v>44</v>
-      </c>
-      <c r="M30" s="21">
-        <v>44</v>
-      </c>
-      <c r="N30" s="21">
-        <v>43</v>
-      </c>
-      <c r="O30" s="22">
-        <v>43</v>
-      </c>
-      <c r="P30" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="22">
-        <v>0</v>
-      </c>
-      <c r="R30" s="32" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="17">
-        <v>840</v>
-      </c>
-      <c r="G31" s="19">
-        <v>836</v>
-      </c>
-      <c r="H31" s="18">
-        <v>7</v>
-      </c>
-      <c r="I31" s="18">
-        <v>7</v>
-      </c>
-      <c r="J31" s="18">
-        <v>4</v>
-      </c>
-      <c r="K31" s="18">
-        <v>4</v>
-      </c>
-      <c r="L31" s="17">
-        <v>735</v>
-      </c>
-      <c r="M31" s="18">
-        <v>733</v>
-      </c>
-      <c r="N31" s="18">
-        <v>709</v>
-      </c>
-      <c r="O31" s="19">
-        <v>707</v>
-      </c>
-      <c r="P31" s="18">
-        <v>98</v>
-      </c>
-      <c r="Q31" s="19">
-        <v>96</v>
-      </c>
-      <c r="R31" s="25" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" s="17">
-        <v>103</v>
-      </c>
-      <c r="G32" s="19">
-        <v>99</v>
-      </c>
-      <c r="H32" s="18">
-        <v>3</v>
-      </c>
-      <c r="I32" s="18">
-        <v>3</v>
-      </c>
-      <c r="J32" s="18">
-        <v>3</v>
-      </c>
-      <c r="K32" s="18">
-        <v>3</v>
-      </c>
-      <c r="L32" s="17">
-        <v>100</v>
-      </c>
-      <c r="M32" s="18">
-        <v>96</v>
-      </c>
-      <c r="N32" s="18">
-        <v>92</v>
-      </c>
-      <c r="O32" s="19">
-        <v>88</v>
-      </c>
-      <c r="P32" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="19">
-        <v>0</v>
-      </c>
-      <c r="R32" s="25" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" s="23" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="B33" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="C33" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="D33" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="E33" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="F33" s="34">
-        <v>52</v>
-      </c>
-      <c r="G33" s="36">
-        <v>52</v>
-      </c>
-      <c r="H33" s="35">
-        <v>4</v>
-      </c>
-      <c r="I33" s="35">
-        <v>4</v>
-      </c>
-      <c r="J33" s="35">
-        <v>2</v>
-      </c>
-      <c r="K33" s="35">
-        <v>2</v>
-      </c>
-      <c r="L33" s="34">
-        <v>48</v>
-      </c>
-      <c r="M33" s="35">
-        <v>48</v>
-      </c>
-      <c r="N33" s="35">
-        <v>38</v>
-      </c>
-      <c r="O33" s="36">
-        <v>38</v>
-      </c>
-      <c r="P33" s="35">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="36">
-        <v>0</v>
-      </c>
-      <c r="R33" s="33" t="s">
-        <v>198</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState ref="A3:R33">
+    <sortCondition ref="C10"/>
+  </sortState>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:G1"/>
@@ -3517,6 +3542,343 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE30651-4788-FE4E-B1A3-DF17739E1033}">
+  <dimension ref="A1:R22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="A6:C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="G1" s="32"/>
+      <c r="H1" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="24"/>
+    </row>
+    <row r="2" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="14">
+        <v>45740</v>
+      </c>
+      <c r="G3" s="16">
+        <v>37481</v>
+      </c>
+      <c r="H3" s="15">
+        <v>1090</v>
+      </c>
+      <c r="I3" s="15">
+        <v>1063</v>
+      </c>
+      <c r="J3" s="15">
+        <v>830</v>
+      </c>
+      <c r="K3" s="15">
+        <v>824</v>
+      </c>
+      <c r="L3" s="14">
+        <v>6942</v>
+      </c>
+      <c r="M3" s="15">
+        <v>6306</v>
+      </c>
+      <c r="N3" s="15">
+        <v>5911</v>
+      </c>
+      <c r="O3" s="16">
+        <v>5514</v>
+      </c>
+      <c r="P3" s="15">
+        <v>37701</v>
+      </c>
+      <c r="Q3" s="16">
+        <v>30105</v>
+      </c>
+      <c r="R3" s="22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="33"/>
+      <c r="B7" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="33"/>
+      <c r="B8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="33"/>
+      <c r="B9" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="33"/>
+      <c r="B10" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="34">
+        <v>45740</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="33"/>
+      <c r="B12" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="34">
+        <v>37481</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" s="34">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="33"/>
+      <c r="B14" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="34">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="33"/>
+      <c r="B15" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="C15" s="34">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="33"/>
+      <c r="B16" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="C16" s="34">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="C17" s="34">
+        <v>6942</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="33"/>
+      <c r="B18" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="34">
+        <v>6306</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="33"/>
+      <c r="B19" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="C19" s="34">
+        <v>5911</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="33"/>
+      <c r="B20" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="C20" s="34">
+        <v>5514</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="C21" s="34">
+        <v>37701</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="33"/>
+      <c r="B22" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="34">
+        <v>30105</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="A6:A10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R29"/>
   <sheetViews>
@@ -3547,91 +3909,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="11" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="12" t="s">
+      <c r="G1" s="32"/>
+      <c r="H1" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="11" t="s">
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="12" t="s">
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="Q1" s="13"/>
+      <c r="Q1" s="32"/>
     </row>
     <row r="2" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="15" t="s">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="P2" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="Q2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="24" t="s">
+      <c r="R2" s="21" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>62</v>
       </c>
@@ -3683,11 +4045,11 @@
       <c r="Q3" s="6">
         <v>536</v>
       </c>
-      <c r="R3" s="23" t="s">
+      <c r="R3" s="20" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>43</v>
       </c>
@@ -3739,11 +4101,11 @@
       <c r="Q4" s="6">
         <v>674</v>
       </c>
-      <c r="R4" s="23" t="s">
+      <c r="R4" s="20" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>79</v>
       </c>
@@ -3795,11 +4157,11 @@
       <c r="Q5" s="6">
         <v>28</v>
       </c>
-      <c r="R5" s="23" t="s">
+      <c r="R5" s="20" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>146</v>
       </c>
@@ -3851,11 +4213,11 @@
       <c r="Q6" s="6">
         <v>0</v>
       </c>
-      <c r="R6" s="23" t="s">
+      <c r="R6" s="20" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>112</v>
       </c>
@@ -3907,11 +4269,11 @@
       <c r="Q7" s="6">
         <v>0</v>
       </c>
-      <c r="R7" s="23" t="s">
+      <c r="R7" s="20" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>85</v>
       </c>
@@ -3964,7 +4326,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>95</v>
       </c>
@@ -4017,7 +4379,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>134</v>
       </c>
@@ -4070,7 +4432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>166</v>
       </c>
@@ -4123,7 +4485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>173</v>
       </c>
@@ -4176,7 +4538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>39</v>
       </c>
@@ -4229,7 +4591,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>59</v>
       </c>
@@ -4282,7 +4644,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>72</v>
       </c>
@@ -4335,7 +4697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>98</v>
       </c>
@@ -4388,7 +4750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>137</v>
       </c>
@@ -4441,7 +4803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>139</v>
       </c>
@@ -4494,7 +4856,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>142</v>
       </c>
@@ -4547,7 +4909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>152</v>
       </c>
@@ -4600,7 +4962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>155</v>
       </c>
@@ -4653,7 +5015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>158</v>
       </c>
@@ -4706,7 +5068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>161</v>
       </c>
@@ -4759,7 +5121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>164</v>
       </c>
@@ -4812,7 +5174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>168</v>
       </c>
@@ -4865,7 +5227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>171</v>
       </c>
@@ -4918,7 +5280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>177</v>
       </c>
@@ -4971,7 +5333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>179</v>
       </c>
@@ -5024,7 +5386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:17" s="23" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>182</v>
       </c>
@@ -5093,7 +5455,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB15DBCB-F64E-E543-AB16-F47C163A7203}">
   <dimension ref="A1:Q60"/>
   <sheetViews>
@@ -5123,84 +5485,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="11" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="12" t="s">
+      <c r="G1" s="32"/>
+      <c r="H1" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="11" t="s">
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="12" t="s">
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="Q1" s="13"/>
+      <c r="Q1" s="32"/>
     </row>
     <row r="2" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="15" t="s">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="P2" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="Q2" s="13" t="s">
         <v>6</v>
       </c>
     </row>
